--- a/s60_signal/position-00991-601991.xlsx
+++ b/s60_signal/position-00991-601991.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1854" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1860" uniqueCount="366">
   <si>
     <t>trade_time</t>
   </si>
@@ -1469,7 +1469,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P614"/>
+  <dimension ref="A1:P616"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -30677,43 +30677,43 @@
         <v>0</v>
       </c>
       <c r="B585" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C585">
-        <v>2.986590337413564</v>
+        <v>2.097453766817889</v>
       </c>
       <c r="D585" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E585">
-        <v>2.463515443861097</v>
+        <v>2.518537471376529</v>
       </c>
       <c r="F585">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G585">
-        <v>0.003253409662586436</v>
+        <v>0.002302546233182111</v>
       </c>
       <c r="H585">
-        <v>0.002696484556138903</v>
+        <v>0.002761462528623472</v>
       </c>
       <c r="I585">
-        <v>0.5230748935524669</v>
+        <v>0.4210837045586393</v>
       </c>
       <c r="J585">
         <v>0.09955944969136986</v>
       </c>
       <c r="K585">
-        <v>1.34</v>
+        <v>1.03</v>
       </c>
       <c r="L585">
-        <v>3.12</v>
+        <v>2.2</v>
       </c>
       <c r="M585">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="N585">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="O585">
         <v>1</v>
@@ -30727,10 +30727,10 @@
         <v>1</v>
       </c>
       <c r="B586" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C586">
-        <v>2.87355949889196</v>
+        <v>2.986590337413564</v>
       </c>
       <c r="D586" t="s">
         <v>144</v>
@@ -30742,22 +30742,22 @@
         <v>-1</v>
       </c>
       <c r="G586">
-        <v>0.003126440501108039</v>
+        <v>0.003253409662586436</v>
       </c>
       <c r="H586">
         <v>0.002696484556138903</v>
       </c>
       <c r="I586">
-        <v>0.4100440550308631</v>
+        <v>0.5230748935524669</v>
       </c>
       <c r="J586">
         <v>0.09955944969136986</v>
       </c>
       <c r="K586">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="L586">
-        <v>3</v>
+        <v>3.12</v>
       </c>
       <c r="M586">
         <v>1.17</v>
@@ -30774,96 +30774,96 @@
     </row>
     <row r="587" spans="1:16">
       <c r="A587" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B587" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C587">
-        <v>2.089309945208396</v>
+        <v>2.87355949889196</v>
       </c>
       <c r="D587" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E587">
-        <v>2.508891391411886</v>
+        <v>2.463515443861097</v>
       </c>
       <c r="F587">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G587">
-        <v>0.002310690054791604</v>
+        <v>0.003126440501108039</v>
       </c>
       <c r="H587">
-        <v>0.002771108608588114</v>
+        <v>0.002696484556138903</v>
       </c>
       <c r="I587">
-        <v>0.4195814462034901</v>
+        <v>0.4100440550308631</v>
       </c>
       <c r="J587">
-        <v>0.1074660726132081</v>
+        <v>0.09955944969136986</v>
       </c>
       <c r="K587">
-        <v>1.03</v>
+        <v>1.27</v>
       </c>
       <c r="L587">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="M587">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="N587">
-        <v>2.64</v>
+        <v>2.58</v>
       </c>
       <c r="O587">
         <v>1</v>
       </c>
       <c r="P587" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="588" spans="1:16">
       <c r="A588" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B588" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C588">
-        <v>2.975995462698301</v>
+        <v>2.089309945208396</v>
       </c>
       <c r="D588" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E588">
-        <v>2.454264695042546</v>
+        <v>2.508891391411886</v>
       </c>
       <c r="F588">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G588">
-        <v>0.003264004537301699</v>
+        <v>0.002310690054791604</v>
       </c>
       <c r="H588">
-        <v>0.002705735304957454</v>
+        <v>0.002771108608588114</v>
       </c>
       <c r="I588">
-        <v>0.5217307676557548</v>
+        <v>0.4195814462034901</v>
       </c>
       <c r="J588">
         <v>0.1074660726132081</v>
       </c>
       <c r="K588">
-        <v>1.34</v>
+        <v>1.03</v>
       </c>
       <c r="L588">
-        <v>3.12</v>
+        <v>2.2</v>
       </c>
       <c r="M588">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="N588">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="O588">
         <v>1</v>
@@ -30874,13 +30874,13 @@
     </row>
     <row r="589" spans="1:16">
       <c r="A589" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B589" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C589">
-        <v>2.863518087781226</v>
+        <v>2.975995462698301</v>
       </c>
       <c r="D589" t="s">
         <v>144</v>
@@ -30892,22 +30892,22 @@
         <v>-1</v>
       </c>
       <c r="G589">
-        <v>0.003136481912218774</v>
+        <v>0.003264004537301699</v>
       </c>
       <c r="H589">
         <v>0.002705735304957454</v>
       </c>
       <c r="I589">
-        <v>0.4092533927386794</v>
+        <v>0.5217307676557548</v>
       </c>
       <c r="J589">
         <v>0.1074660726132081</v>
       </c>
       <c r="K589">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="L589">
-        <v>3</v>
+        <v>3.12</v>
       </c>
       <c r="M589">
         <v>1.17</v>
@@ -30924,96 +30924,96 @@
     </row>
     <row r="590" spans="1:16">
       <c r="A590" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B590" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C590">
-        <v>2.094107820370248</v>
+        <v>2.863518087781226</v>
       </c>
       <c r="D590" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E590">
-        <v>2.514574311506508</v>
+        <v>2.454264695042546</v>
       </c>
       <c r="F590">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G590">
-        <v>0.002305892179629752</v>
+        <v>0.003136481912218774</v>
       </c>
       <c r="H590">
-        <v>0.002765425688493492</v>
+        <v>0.002705735304957454</v>
       </c>
       <c r="I590">
-        <v>0.4204664911362594</v>
+        <v>0.4092533927386794</v>
       </c>
       <c r="J590">
-        <v>0.1028079413881086</v>
+        <v>0.1074660726132081</v>
       </c>
       <c r="K590">
-        <v>1.03</v>
+        <v>1.27</v>
       </c>
       <c r="L590">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="M590">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="N590">
-        <v>2.64</v>
+        <v>2.58</v>
       </c>
       <c r="O590">
         <v>1</v>
       </c>
       <c r="P590" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="591" spans="1:16">
       <c r="A591" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B591" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C591">
-        <v>2.982237358539935</v>
+        <v>2.094107820370248</v>
       </c>
       <c r="D591" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E591">
-        <v>2.459714708575913</v>
+        <v>2.514574311506508</v>
       </c>
       <c r="F591">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G591">
-        <v>0.003257762641460066</v>
+        <v>0.002305892179629752</v>
       </c>
       <c r="H591">
-        <v>0.002700285291424087</v>
+        <v>0.002765425688493492</v>
       </c>
       <c r="I591">
-        <v>0.5225226499640216</v>
+        <v>0.4204664911362594</v>
       </c>
       <c r="J591">
         <v>0.1028079413881086</v>
       </c>
       <c r="K591">
-        <v>1.34</v>
+        <v>1.03</v>
       </c>
       <c r="L591">
-        <v>3.12</v>
+        <v>2.2</v>
       </c>
       <c r="M591">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="N591">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="O591">
         <v>1</v>
@@ -31024,13 +31024,13 @@
     </row>
     <row r="592" spans="1:16">
       <c r="A592" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B592" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C592">
-        <v>2.869433914437102</v>
+        <v>2.982237358539935</v>
       </c>
       <c r="D592" t="s">
         <v>144</v>
@@ -31042,22 +31042,22 @@
         <v>-1</v>
       </c>
       <c r="G592">
-        <v>0.003130566085562898</v>
+        <v>0.003257762641460066</v>
       </c>
       <c r="H592">
         <v>0.002700285291424087</v>
       </c>
       <c r="I592">
-        <v>0.4097192058611889</v>
+        <v>0.5225226499640216</v>
       </c>
       <c r="J592">
         <v>0.1028079413881086</v>
       </c>
       <c r="K592">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="L592">
-        <v>3</v>
+        <v>3.12</v>
       </c>
       <c r="M592">
         <v>1.17</v>
@@ -31074,96 +31074,96 @@
     </row>
     <row r="593" spans="1:16">
       <c r="A593" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B593" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C593">
-        <v>2.084743195682537</v>
+        <v>2.869433914437102</v>
       </c>
       <c r="D593" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E593">
-        <v>2.503482231779316</v>
+        <v>2.459714708575913</v>
       </c>
       <c r="F593">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G593">
-        <v>0.002315256804317463</v>
+        <v>0.003130566085562898</v>
       </c>
       <c r="H593">
-        <v>0.002776517768220685</v>
+        <v>0.002700285291424087</v>
       </c>
       <c r="I593">
-        <v>0.4187390360967784</v>
+        <v>0.4097192058611889</v>
       </c>
       <c r="J593">
-        <v>0.1118998100169543</v>
+        <v>0.1028079413881086</v>
       </c>
       <c r="K593">
-        <v>1.03</v>
+        <v>1.27</v>
       </c>
       <c r="L593">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="M593">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="N593">
-        <v>2.64</v>
+        <v>2.58</v>
       </c>
       <c r="O593">
         <v>1</v>
       </c>
       <c r="P593" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="594" spans="1:16">
       <c r="A594" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B594" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C594">
-        <v>2.970054254577281</v>
+        <v>2.084743195682537</v>
       </c>
       <c r="D594" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E594">
-        <v>2.449077222280164</v>
+        <v>2.503482231779316</v>
       </c>
       <c r="F594">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G594">
-        <v>0.003269945745422719</v>
+        <v>0.002315256804317463</v>
       </c>
       <c r="H594">
-        <v>0.002710922777719837</v>
+        <v>0.002776517768220685</v>
       </c>
       <c r="I594">
-        <v>0.5209770322971177</v>
+        <v>0.4187390360967784</v>
       </c>
       <c r="J594">
         <v>0.1118998100169543</v>
       </c>
       <c r="K594">
-        <v>1.34</v>
+        <v>1.03</v>
       </c>
       <c r="L594">
-        <v>3.12</v>
+        <v>2.2</v>
       </c>
       <c r="M594">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="N594">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="O594">
         <v>1</v>
@@ -31174,13 +31174,13 @@
     </row>
     <row r="595" spans="1:16">
       <c r="A595" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B595" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C595">
-        <v>2.857887241278468</v>
+        <v>2.970054254577281</v>
       </c>
       <c r="D595" t="s">
         <v>144</v>
@@ -31192,22 +31192,22 @@
         <v>-1</v>
       </c>
       <c r="G595">
-        <v>0.003142112758721532</v>
+        <v>0.003269945745422719</v>
       </c>
       <c r="H595">
         <v>0.002710922777719837</v>
       </c>
       <c r="I595">
-        <v>0.4088100189983046</v>
+        <v>0.5209770322971177</v>
       </c>
       <c r="J595">
         <v>0.1118998100169543</v>
       </c>
       <c r="K595">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="L595">
-        <v>3</v>
+        <v>3.12</v>
       </c>
       <c r="M595">
         <v>1.17</v>
@@ -31224,40 +31224,40 @@
     </row>
     <row r="596" spans="1:16">
       <c r="A596" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B596" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C596">
-        <v>2.944089643772313</v>
+        <v>2.857887241278468</v>
       </c>
       <c r="D596" t="s">
         <v>144</v>
       </c>
       <c r="E596">
-        <v>2.426406629263886</v>
+        <v>2.449077222280164</v>
       </c>
       <c r="F596">
         <v>-1</v>
       </c>
       <c r="G596">
-        <v>0.003295910356227687</v>
+        <v>0.003142112758721532</v>
       </c>
       <c r="H596">
-        <v>0.002733593370736115</v>
+        <v>0.002710922777719837</v>
       </c>
       <c r="I596">
-        <v>0.5176830145084277</v>
+        <v>0.4088100189983046</v>
       </c>
       <c r="J596">
-        <v>0.1312763852445424</v>
+        <v>0.1118998100169543</v>
       </c>
       <c r="K596">
-        <v>1.34</v>
+        <v>1.27</v>
       </c>
       <c r="L596">
-        <v>3.12</v>
+        <v>3</v>
       </c>
       <c r="M596">
         <v>1.17</v>
@@ -31269,18 +31269,18 @@
         <v>1</v>
       </c>
       <c r="P596" t="s">
-        <v>59</v>
+        <v>358</v>
       </c>
     </row>
     <row r="597" spans="1:16">
       <c r="A597" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B597" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C597">
-        <v>2.833278990739431</v>
+        <v>2.944089643772313</v>
       </c>
       <c r="D597" t="s">
         <v>144</v>
@@ -31292,22 +31292,22 @@
         <v>-1</v>
       </c>
       <c r="G597">
-        <v>0.003166721009260569</v>
+        <v>0.003295910356227687</v>
       </c>
       <c r="H597">
         <v>0.002733593370736115</v>
       </c>
       <c r="I597">
-        <v>0.4068723614755454</v>
+        <v>0.5176830145084277</v>
       </c>
       <c r="J597">
         <v>0.1312763852445424</v>
       </c>
       <c r="K597">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="L597">
-        <v>3</v>
+        <v>3.12</v>
       </c>
       <c r="M597">
         <v>1.17</v>
@@ -31324,40 +31324,40 @@
     </row>
     <row r="598" spans="1:16">
       <c r="A598" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B598" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C598">
-        <v>2.897401147650162</v>
+        <v>2.833278990739431</v>
       </c>
       <c r="D598" t="s">
         <v>144</v>
       </c>
       <c r="E598">
-        <v>2.385641300560216</v>
+        <v>2.426406629263886</v>
       </c>
       <c r="F598">
         <v>-1</v>
       </c>
       <c r="G598">
-        <v>0.003342598852349839</v>
+        <v>0.003166721009260569</v>
       </c>
       <c r="H598">
-        <v>0.002774358699439784</v>
+        <v>0.002733593370736115</v>
       </c>
       <c r="I598">
-        <v>0.5117598470899458</v>
+        <v>0.4068723614755454</v>
       </c>
       <c r="J598">
-        <v>0.16611854652973</v>
+        <v>0.1312763852445424</v>
       </c>
       <c r="K598">
-        <v>1.34</v>
+        <v>1.27</v>
       </c>
       <c r="L598">
-        <v>3.12</v>
+        <v>3</v>
       </c>
       <c r="M598">
         <v>1.17</v>
@@ -31369,51 +31369,51 @@
         <v>1</v>
       </c>
       <c r="P598" t="s">
-        <v>359</v>
+        <v>59</v>
       </c>
     </row>
     <row r="599" spans="1:16">
       <c r="A599" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B599" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C599">
-        <v>2.789029445907243</v>
+        <v>2.063914340678486</v>
       </c>
       <c r="D599" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E599">
-        <v>2.385641300560216</v>
+        <v>2.437335373233729</v>
       </c>
       <c r="F599">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G599">
-        <v>0.003210970554092757</v>
+        <v>0.002416085659321514</v>
       </c>
       <c r="H599">
-        <v>0.002774358699439784</v>
+        <v>0.002842664626766271</v>
       </c>
       <c r="I599">
-        <v>0.4033881453470269</v>
+        <v>0.3734210325552429</v>
       </c>
       <c r="J599">
         <v>0.16611854652973</v>
       </c>
       <c r="K599">
-        <v>1.27</v>
+        <v>1.06</v>
       </c>
       <c r="L599">
-        <v>3</v>
+        <v>2.24</v>
       </c>
       <c r="M599">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="N599">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="O599">
         <v>1</v>
@@ -31424,90 +31424,90 @@
     </row>
     <row r="600" spans="1:16">
       <c r="A600" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B600" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C600">
-        <v>2.014066208827843</v>
+        <v>2.897401147650162</v>
       </c>
       <c r="D600" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E600">
-        <v>2.379962995066008</v>
+        <v>2.385641300560216</v>
       </c>
       <c r="F600">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G600">
-        <v>0.002465933791172158</v>
+        <v>0.003342598852349839</v>
       </c>
       <c r="H600">
-        <v>0.002900037004933993</v>
+        <v>0.002774358699439784</v>
       </c>
       <c r="I600">
-        <v>0.365896786238165</v>
+        <v>0.5117598470899458</v>
       </c>
       <c r="J600">
-        <v>0.2131450860114693</v>
+        <v>0.16611854652973</v>
       </c>
       <c r="K600">
-        <v>1.06</v>
+        <v>1.34</v>
       </c>
       <c r="L600">
-        <v>2.24</v>
+        <v>3.12</v>
       </c>
       <c r="M600">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="N600">
-        <v>2.64</v>
+        <v>2.58</v>
       </c>
       <c r="O600">
         <v>1</v>
       </c>
       <c r="P600" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="601" spans="1:16">
       <c r="A601" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B601" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C601">
-        <v>2.834385584744631</v>
+        <v>2.789029445907243</v>
       </c>
       <c r="D601" t="s">
         <v>144</v>
       </c>
       <c r="E601">
-        <v>2.330620249366581</v>
+        <v>2.385641300560216</v>
       </c>
       <c r="F601">
         <v>-1</v>
       </c>
       <c r="G601">
-        <v>0.003405614415255369</v>
+        <v>0.003210970554092757</v>
       </c>
       <c r="H601">
-        <v>0.002829379750633419</v>
+        <v>0.002774358699439784</v>
       </c>
       <c r="I601">
-        <v>0.5037653353780502</v>
+        <v>0.4033881453470269</v>
       </c>
       <c r="J601">
-        <v>0.2131450860114693</v>
+        <v>0.16611854652973</v>
       </c>
       <c r="K601">
-        <v>1.34</v>
+        <v>1.27</v>
       </c>
       <c r="L601">
-        <v>3.12</v>
+        <v>3</v>
       </c>
       <c r="M601">
         <v>1.17</v>
@@ -31519,51 +31519,51 @@
         <v>1</v>
       </c>
       <c r="P601" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="602" spans="1:16">
       <c r="A602" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B602" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C602">
-        <v>2.729305740765434</v>
+        <v>2.014066208827843</v>
       </c>
       <c r="D602" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E602">
-        <v>2.330620249366581</v>
+        <v>2.379962995066008</v>
       </c>
       <c r="F602">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G602">
-        <v>0.003270694259234566</v>
+        <v>0.002465933791172158</v>
       </c>
       <c r="H602">
-        <v>0.002829379750633419</v>
+        <v>0.002900037004933993</v>
       </c>
       <c r="I602">
-        <v>0.3986854913988531</v>
+        <v>0.365896786238165</v>
       </c>
       <c r="J602">
         <v>0.2131450860114693</v>
       </c>
       <c r="K602">
-        <v>1.27</v>
+        <v>1.06</v>
       </c>
       <c r="L602">
-        <v>3</v>
+        <v>2.24</v>
       </c>
       <c r="M602">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="N602">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="O602">
         <v>1</v>
@@ -31574,34 +31574,34 @@
     </row>
     <row r="603" spans="1:16">
       <c r="A603" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B603" t="s">
         <v>57</v>
       </c>
       <c r="C603">
-        <v>2.710585509297514</v>
+        <v>2.834385584744631</v>
       </c>
       <c r="D603" t="s">
         <v>144</v>
       </c>
       <c r="E603">
-        <v>2.222526153640366</v>
+        <v>2.330620249366581</v>
       </c>
       <c r="F603">
         <v>-1</v>
       </c>
       <c r="G603">
-        <v>0.003529414490702487</v>
+        <v>0.003405614415255369</v>
       </c>
       <c r="H603">
-        <v>0.002937473846359634</v>
+        <v>0.002829379750633419</v>
       </c>
       <c r="I603">
-        <v>0.4880593556571475</v>
+        <v>0.5037653353780502</v>
       </c>
       <c r="J603">
-        <v>0.3055332020167811</v>
+        <v>0.2131450860114693</v>
       </c>
       <c r="K603">
         <v>1.34</v>
@@ -31619,39 +31619,39 @@
         <v>1</v>
       </c>
       <c r="P603" t="s">
-        <v>60</v>
+        <v>360</v>
       </c>
     </row>
     <row r="604" spans="1:16">
       <c r="A604" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B604" t="s">
         <v>58</v>
       </c>
       <c r="C604">
-        <v>2.611972833438688</v>
+        <v>2.729305740765434</v>
       </c>
       <c r="D604" t="s">
         <v>144</v>
       </c>
       <c r="E604">
-        <v>2.222526153640366</v>
+        <v>2.330620249366581</v>
       </c>
       <c r="F604">
         <v>-1</v>
       </c>
       <c r="G604">
-        <v>0.003388027166561312</v>
+        <v>0.003270694259234566</v>
       </c>
       <c r="H604">
-        <v>0.002937473846359634</v>
+        <v>0.002829379750633419</v>
       </c>
       <c r="I604">
-        <v>0.389446679798322</v>
+        <v>0.3986854913988531</v>
       </c>
       <c r="J604">
-        <v>0.3055332020167811</v>
+        <v>0.2131450860114693</v>
       </c>
       <c r="K604">
         <v>1.27</v>
@@ -31669,7 +31669,7 @@
         <v>1</v>
       </c>
       <c r="P604" t="s">
-        <v>60</v>
+        <v>360</v>
       </c>
     </row>
     <row r="605" spans="1:16">
@@ -31680,28 +31680,28 @@
         <v>57</v>
       </c>
       <c r="C605">
-        <v>2.647551728558422</v>
+        <v>2.710585509297514</v>
       </c>
       <c r="D605" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E605">
-        <v>2.193963462461894</v>
+        <v>2.222526153640366</v>
       </c>
       <c r="F605">
         <v>-1</v>
       </c>
       <c r="G605">
-        <v>0.003592448271441579</v>
+        <v>0.003529414490702487</v>
       </c>
       <c r="H605">
-        <v>0.003026036537538106</v>
+        <v>0.002937473846359634</v>
       </c>
       <c r="I605">
-        <v>0.4535882660965278</v>
+        <v>0.4880593556571475</v>
       </c>
       <c r="J605">
-        <v>0.3525733368967002</v>
+        <v>0.3055332020167811</v>
       </c>
       <c r="K605">
         <v>1.34</v>
@@ -31710,16 +31710,16 @@
         <v>3.12</v>
       </c>
       <c r="M605">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="N605">
-        <v>2.61</v>
+        <v>2.58</v>
       </c>
       <c r="O605">
         <v>1</v>
       </c>
       <c r="P605" t="s">
-        <v>361</v>
+        <v>60</v>
       </c>
     </row>
     <row r="606" spans="1:16">
@@ -31730,28 +31730,28 @@
         <v>58</v>
       </c>
       <c r="C606">
-        <v>2.552231862141191</v>
+        <v>2.611972833438688</v>
       </c>
       <c r="D606" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E606">
-        <v>2.193963462461894</v>
+        <v>2.222526153640366</v>
       </c>
       <c r="F606">
         <v>-1</v>
       </c>
       <c r="G606">
-        <v>0.003447768137858809</v>
+        <v>0.003388027166561312</v>
       </c>
       <c r="H606">
-        <v>0.003026036537538106</v>
+        <v>0.002937473846359634</v>
       </c>
       <c r="I606">
-        <v>0.358268399679297</v>
+        <v>0.389446679798322</v>
       </c>
       <c r="J606">
-        <v>0.3525733368967002</v>
+        <v>0.3055332020167811</v>
       </c>
       <c r="K606">
         <v>1.27</v>
@@ -31760,16 +31760,16 @@
         <v>3</v>
       </c>
       <c r="M606">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="N606">
-        <v>2.61</v>
+        <v>2.58</v>
       </c>
       <c r="O606">
         <v>1</v>
       </c>
       <c r="P606" t="s">
-        <v>361</v>
+        <v>60</v>
       </c>
     </row>
     <row r="607" spans="1:16">
@@ -31780,28 +31780,28 @@
         <v>57</v>
       </c>
       <c r="C607">
-        <v>2.59897387935353</v>
+        <v>2.647551728558422</v>
       </c>
       <c r="D607" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E607">
-        <v>2.151185953460571</v>
+        <v>2.167489195830861</v>
       </c>
       <c r="F607">
         <v>-1</v>
       </c>
       <c r="G607">
-        <v>0.003641026120646471</v>
+        <v>0.003592448271441579</v>
       </c>
       <c r="H607">
-        <v>0.003068814046539429</v>
+        <v>0.00299251080416914</v>
       </c>
       <c r="I607">
-        <v>0.4477879258929587</v>
+        <v>0.4800625327275609</v>
       </c>
       <c r="J607">
-        <v>0.3888254631690077</v>
+        <v>0.3525733368967002</v>
       </c>
       <c r="K607">
         <v>1.34</v>
@@ -31810,16 +31810,16 @@
         <v>3.12</v>
       </c>
       <c r="M607">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="N607">
-        <v>2.61</v>
+        <v>2.58</v>
       </c>
       <c r="O607">
         <v>1</v>
       </c>
       <c r="P607" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="608" spans="1:16">
@@ -31830,28 +31830,28 @@
         <v>58</v>
       </c>
       <c r="C608">
-        <v>2.50619166177536</v>
+        <v>2.552231862141191</v>
       </c>
       <c r="D608" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E608">
-        <v>2.151185953460571</v>
+        <v>2.167489195830861</v>
       </c>
       <c r="F608">
         <v>-1</v>
       </c>
       <c r="G608">
-        <v>0.00349380833822464</v>
+        <v>0.003447768137858809</v>
       </c>
       <c r="H608">
-        <v>0.003068814046539429</v>
+        <v>0.00299251080416914</v>
       </c>
       <c r="I608">
-        <v>0.3550057083147893</v>
+        <v>0.3847426663103302</v>
       </c>
       <c r="J608">
-        <v>0.3888254631690077</v>
+        <v>0.3525733368967002</v>
       </c>
       <c r="K608">
         <v>1.27</v>
@@ -31860,16 +31860,16 @@
         <v>3</v>
       </c>
       <c r="M608">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="N608">
-        <v>2.61</v>
+        <v>2.58</v>
       </c>
       <c r="O608">
         <v>1</v>
       </c>
       <c r="P608" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="609" spans="1:16">
@@ -31880,28 +31880,28 @@
         <v>57</v>
       </c>
       <c r="C609">
-        <v>2.575095597538799</v>
+        <v>2.59897387935353</v>
       </c>
       <c r="D609" t="s">
         <v>146</v>
       </c>
       <c r="E609">
-        <v>2.130158809772972</v>
+        <v>2.151185953460571</v>
       </c>
       <c r="F609">
         <v>-1</v>
       </c>
       <c r="G609">
-        <v>0.003664904402461202</v>
+        <v>0.003641026120646471</v>
       </c>
       <c r="H609">
-        <v>0.003089841190227028</v>
+        <v>0.003068814046539429</v>
       </c>
       <c r="I609">
-        <v>0.444936787765827</v>
+        <v>0.4477879258929587</v>
       </c>
       <c r="J609">
-        <v>0.4066450764635833</v>
+        <v>0.3888254631690077</v>
       </c>
       <c r="K609">
         <v>1.34</v>
@@ -31919,7 +31919,7 @@
         <v>1</v>
       </c>
       <c r="P609" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="610" spans="1:16">
@@ -31930,28 +31930,28 @@
         <v>58</v>
       </c>
       <c r="C610">
-        <v>2.483560752891249</v>
+        <v>2.50619166177536</v>
       </c>
       <c r="D610" t="s">
         <v>146</v>
       </c>
       <c r="E610">
-        <v>2.130158809772972</v>
+        <v>2.151185953460571</v>
       </c>
       <c r="F610">
         <v>-1</v>
       </c>
       <c r="G610">
-        <v>0.003516439247108751</v>
+        <v>0.00349380833822464</v>
       </c>
       <c r="H610">
-        <v>0.003089841190227028</v>
+        <v>0.003068814046539429</v>
       </c>
       <c r="I610">
-        <v>0.3534019431182776</v>
+        <v>0.3550057083147893</v>
       </c>
       <c r="J610">
-        <v>0.4066450764635833</v>
+        <v>0.3888254631690077</v>
       </c>
       <c r="K610">
         <v>1.27</v>
@@ -31969,7 +31969,7 @@
         <v>1</v>
       </c>
       <c r="P610" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="611" spans="1:16">
@@ -31980,28 +31980,28 @@
         <v>57</v>
       </c>
       <c r="C611">
-        <v>2.513392232045375</v>
+        <v>2.575095597538799</v>
       </c>
       <c r="D611" t="s">
         <v>146</v>
       </c>
       <c r="E611">
-        <v>2.075823010308614</v>
+        <v>2.130158809772972</v>
       </c>
       <c r="F611">
         <v>-1</v>
       </c>
       <c r="G611">
-        <v>0.003726607767954625</v>
+        <v>0.003664904402461202</v>
       </c>
       <c r="H611">
-        <v>0.003144176989691386</v>
+        <v>0.003089841190227028</v>
       </c>
       <c r="I611">
-        <v>0.4375692217367613</v>
+        <v>0.444936787765827</v>
       </c>
       <c r="J611">
-        <v>0.4526923641452424</v>
+        <v>0.4066450764635833</v>
       </c>
       <c r="K611">
         <v>1.34</v>
@@ -32019,7 +32019,7 @@
         <v>1</v>
       </c>
       <c r="P611" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="612" spans="1:16">
@@ -32030,28 +32030,28 @@
         <v>58</v>
       </c>
       <c r="C612">
-        <v>2.425080697535542</v>
+        <v>2.483560752891249</v>
       </c>
       <c r="D612" t="s">
         <v>146</v>
       </c>
       <c r="E612">
-        <v>2.075823010308614</v>
+        <v>2.130158809772972</v>
       </c>
       <c r="F612">
         <v>-1</v>
       </c>
       <c r="G612">
-        <v>0.003574919302464458</v>
+        <v>0.003516439247108751</v>
       </c>
       <c r="H612">
-        <v>0.003144176989691386</v>
+        <v>0.003089841190227028</v>
       </c>
       <c r="I612">
-        <v>0.349257687226928</v>
+        <v>0.3534019431182776</v>
       </c>
       <c r="J612">
-        <v>0.4526923641452424</v>
+        <v>0.4066450764635833</v>
       </c>
       <c r="K612">
         <v>1.27</v>
@@ -32069,7 +32069,7 @@
         <v>1</v>
       </c>
       <c r="P612" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="613" spans="1:16">
@@ -32080,28 +32080,28 @@
         <v>57</v>
       </c>
       <c r="C613">
-        <v>2.46037019732591</v>
+        <v>2.513392232045375</v>
       </c>
       <c r="D613" t="s">
         <v>146</v>
       </c>
       <c r="E613">
-        <v>2.029131964809383</v>
+        <v>2.075823010308614</v>
       </c>
       <c r="F613">
         <v>-1</v>
       </c>
       <c r="G613">
-        <v>0.00377962980267409</v>
+        <v>0.003726607767954625</v>
       </c>
       <c r="H613">
-        <v>0.003190868035190617</v>
+        <v>0.003144176989691386</v>
       </c>
       <c r="I613">
-        <v>0.4312382325165269</v>
+        <v>0.4375692217367613</v>
       </c>
       <c r="J613">
-        <v>0.4922610467717091</v>
+        <v>0.4526923641452424</v>
       </c>
       <c r="K613">
         <v>1.34</v>
@@ -32119,7 +32119,7 @@
         <v>1</v>
       </c>
       <c r="P613" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="614" spans="1:16">
@@ -32130,28 +32130,28 @@
         <v>58</v>
       </c>
       <c r="C614">
-        <v>2.37482847059993</v>
+        <v>2.425080697535542</v>
       </c>
       <c r="D614" t="s">
         <v>146</v>
       </c>
       <c r="E614">
-        <v>2.029131964809383</v>
+        <v>2.075823010308614</v>
       </c>
       <c r="F614">
         <v>-1</v>
       </c>
       <c r="G614">
-        <v>0.003625171529400071</v>
+        <v>0.003574919302464458</v>
       </c>
       <c r="H614">
-        <v>0.003190868035190617</v>
+        <v>0.003144176989691386</v>
       </c>
       <c r="I614">
-        <v>0.3456965057905466</v>
+        <v>0.349257687226928</v>
       </c>
       <c r="J614">
-        <v>0.4922610467717091</v>
+        <v>0.4526923641452424</v>
       </c>
       <c r="K614">
         <v>1.27</v>
@@ -32169,6 +32169,106 @@
         <v>1</v>
       </c>
       <c r="P614" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="615" spans="1:16">
+      <c r="A615" s="1">
+        <v>0</v>
+      </c>
+      <c r="B615" t="s">
+        <v>57</v>
+      </c>
+      <c r="C615">
+        <v>2.46037019732591</v>
+      </c>
+      <c r="D615" t="s">
+        <v>146</v>
+      </c>
+      <c r="E615">
+        <v>2.029131964809383</v>
+      </c>
+      <c r="F615">
+        <v>-1</v>
+      </c>
+      <c r="G615">
+        <v>0.00377962980267409</v>
+      </c>
+      <c r="H615">
+        <v>0.003190868035190617</v>
+      </c>
+      <c r="I615">
+        <v>0.4312382325165269</v>
+      </c>
+      <c r="J615">
+        <v>0.4922610467717091</v>
+      </c>
+      <c r="K615">
+        <v>1.34</v>
+      </c>
+      <c r="L615">
+        <v>3.12</v>
+      </c>
+      <c r="M615">
+        <v>1.18</v>
+      </c>
+      <c r="N615">
+        <v>2.61</v>
+      </c>
+      <c r="O615">
+        <v>1</v>
+      </c>
+      <c r="P615" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="616" spans="1:16">
+      <c r="A616" s="1">
+        <v>1</v>
+      </c>
+      <c r="B616" t="s">
+        <v>58</v>
+      </c>
+      <c r="C616">
+        <v>2.37482847059993</v>
+      </c>
+      <c r="D616" t="s">
+        <v>146</v>
+      </c>
+      <c r="E616">
+        <v>2.029131964809383</v>
+      </c>
+      <c r="F616">
+        <v>-1</v>
+      </c>
+      <c r="G616">
+        <v>0.003625171529400071</v>
+      </c>
+      <c r="H616">
+        <v>0.003190868035190617</v>
+      </c>
+      <c r="I616">
+        <v>0.3456965057905466</v>
+      </c>
+      <c r="J616">
+        <v>0.4922610467717091</v>
+      </c>
+      <c r="K616">
+        <v>1.27</v>
+      </c>
+      <c r="L616">
+        <v>3</v>
+      </c>
+      <c r="M616">
+        <v>1.18</v>
+      </c>
+      <c r="N616">
+        <v>2.61</v>
+      </c>
+      <c r="O616">
+        <v>1</v>
+      </c>
+      <c r="P616" t="s">
         <v>365</v>
       </c>
     </row>

--- a/s60_signal/position-00991-601991.xlsx
+++ b/s60_signal/position-00991-601991.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1824" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1827" uniqueCount="362">
   <si>
     <t>trade_time</t>
   </si>
@@ -1457,7 +1457,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P604"/>
+  <dimension ref="A1:P605"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -29965,43 +29965,43 @@
         <v>0</v>
       </c>
       <c r="B571" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C571">
-        <v>2.995940880174577</v>
+        <v>2.104641124313295</v>
       </c>
       <c r="D571" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E571">
-        <v>2.471679723734519</v>
+        <v>2.527050652099242</v>
       </c>
       <c r="F571">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G571">
-        <v>0.003244059119825423</v>
+        <v>0.002295358875686706</v>
       </c>
       <c r="H571">
-        <v>0.002688320276265481</v>
+        <v>0.002752949347900758</v>
       </c>
       <c r="I571">
-        <v>0.5242611564400583</v>
+        <v>0.4224095277859474</v>
       </c>
       <c r="J571">
         <v>0.09258143270553931</v>
       </c>
       <c r="K571">
-        <v>1.34</v>
+        <v>1.03</v>
       </c>
       <c r="L571">
-        <v>3.12</v>
+        <v>2.2</v>
       </c>
       <c r="M571">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="N571">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="O571">
         <v>1</v>
@@ -30015,10 +30015,10 @@
         <v>1</v>
       </c>
       <c r="B572" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C572">
-        <v>2.882421580463965</v>
+        <v>2.995940880174577</v>
       </c>
       <c r="D572" t="s">
         <v>142</v>
@@ -30030,22 +30030,22 @@
         <v>-1</v>
       </c>
       <c r="G572">
-        <v>0.003117578419536035</v>
+        <v>0.003244059119825423</v>
       </c>
       <c r="H572">
         <v>0.002688320276265481</v>
       </c>
       <c r="I572">
-        <v>0.4107418567294463</v>
+        <v>0.5242611564400583</v>
       </c>
       <c r="J572">
         <v>0.09258143270553931</v>
       </c>
       <c r="K572">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="L572">
-        <v>3</v>
+        <v>3.12</v>
       </c>
       <c r="M572">
         <v>1.17</v>
@@ -30062,96 +30062,96 @@
     </row>
     <row r="573" spans="1:16">
       <c r="A573" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B573" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C573">
-        <v>2.097453766817889</v>
+        <v>2.882421580463965</v>
       </c>
       <c r="D573" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E573">
-        <v>2.518537471376529</v>
+        <v>2.471679723734519</v>
       </c>
       <c r="F573">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G573">
-        <v>0.002302546233182111</v>
+        <v>0.003117578419536035</v>
       </c>
       <c r="H573">
-        <v>0.002761462528623472</v>
+        <v>0.002688320276265481</v>
       </c>
       <c r="I573">
-        <v>0.4210837045586393</v>
+        <v>0.4107418567294463</v>
       </c>
       <c r="J573">
-        <v>0.09955944969136986</v>
+        <v>0.09258143270553931</v>
       </c>
       <c r="K573">
-        <v>1.03</v>
+        <v>1.27</v>
       </c>
       <c r="L573">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="M573">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="N573">
-        <v>2.64</v>
+        <v>2.58</v>
       </c>
       <c r="O573">
         <v>1</v>
       </c>
       <c r="P573" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="574" spans="1:16">
       <c r="A574" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B574" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C574">
-        <v>2.986590337413564</v>
+        <v>2.097453766817889</v>
       </c>
       <c r="D574" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E574">
-        <v>2.463515443861097</v>
+        <v>2.518537471376529</v>
       </c>
       <c r="F574">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G574">
-        <v>0.003253409662586436</v>
+        <v>0.002302546233182111</v>
       </c>
       <c r="H574">
-        <v>0.002696484556138903</v>
+        <v>0.002761462528623472</v>
       </c>
       <c r="I574">
-        <v>0.5230748935524669</v>
+        <v>0.4210837045586393</v>
       </c>
       <c r="J574">
         <v>0.09955944969136986</v>
       </c>
       <c r="K574">
-        <v>1.34</v>
+        <v>1.03</v>
       </c>
       <c r="L574">
-        <v>3.12</v>
+        <v>2.2</v>
       </c>
       <c r="M574">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="N574">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="O574">
         <v>1</v>
@@ -30162,13 +30162,13 @@
     </row>
     <row r="575" spans="1:16">
       <c r="A575" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B575" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C575">
-        <v>2.87355949889196</v>
+        <v>2.986590337413564</v>
       </c>
       <c r="D575" t="s">
         <v>142</v>
@@ -30180,22 +30180,22 @@
         <v>-1</v>
       </c>
       <c r="G575">
-        <v>0.003126440501108039</v>
+        <v>0.003253409662586436</v>
       </c>
       <c r="H575">
         <v>0.002696484556138903</v>
       </c>
       <c r="I575">
-        <v>0.4100440550308631</v>
+        <v>0.5230748935524669</v>
       </c>
       <c r="J575">
         <v>0.09955944969136986</v>
       </c>
       <c r="K575">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="L575">
-        <v>3</v>
+        <v>3.12</v>
       </c>
       <c r="M575">
         <v>1.17</v>
@@ -30212,96 +30212,96 @@
     </row>
     <row r="576" spans="1:16">
       <c r="A576" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B576" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C576">
-        <v>2.089309945208396</v>
+        <v>2.87355949889196</v>
       </c>
       <c r="D576" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E576">
-        <v>2.508891391411886</v>
+        <v>2.463515443861097</v>
       </c>
       <c r="F576">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G576">
-        <v>0.002310690054791604</v>
+        <v>0.003126440501108039</v>
       </c>
       <c r="H576">
-        <v>0.002771108608588114</v>
+        <v>0.002696484556138903</v>
       </c>
       <c r="I576">
-        <v>0.4195814462034901</v>
+        <v>0.4100440550308631</v>
       </c>
       <c r="J576">
-        <v>0.1074660726132081</v>
+        <v>0.09955944969136986</v>
       </c>
       <c r="K576">
-        <v>1.03</v>
+        <v>1.27</v>
       </c>
       <c r="L576">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="M576">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="N576">
-        <v>2.64</v>
+        <v>2.58</v>
       </c>
       <c r="O576">
         <v>1</v>
       </c>
       <c r="P576" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="577" spans="1:16">
       <c r="A577" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B577" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C577">
-        <v>2.975995462698301</v>
+        <v>2.089309945208396</v>
       </c>
       <c r="D577" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E577">
-        <v>2.454264695042546</v>
+        <v>2.508891391411886</v>
       </c>
       <c r="F577">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G577">
-        <v>0.003264004537301699</v>
+        <v>0.002310690054791604</v>
       </c>
       <c r="H577">
-        <v>0.002705735304957454</v>
+        <v>0.002771108608588114</v>
       </c>
       <c r="I577">
-        <v>0.5217307676557548</v>
+        <v>0.4195814462034901</v>
       </c>
       <c r="J577">
         <v>0.1074660726132081</v>
       </c>
       <c r="K577">
-        <v>1.34</v>
+        <v>1.03</v>
       </c>
       <c r="L577">
-        <v>3.12</v>
+        <v>2.2</v>
       </c>
       <c r="M577">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="N577">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="O577">
         <v>1</v>
@@ -30312,13 +30312,13 @@
     </row>
     <row r="578" spans="1:16">
       <c r="A578" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B578" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C578">
-        <v>2.863518087781226</v>
+        <v>2.975995462698301</v>
       </c>
       <c r="D578" t="s">
         <v>142</v>
@@ -30330,22 +30330,22 @@
         <v>-1</v>
       </c>
       <c r="G578">
-        <v>0.003136481912218774</v>
+        <v>0.003264004537301699</v>
       </c>
       <c r="H578">
         <v>0.002705735304957454</v>
       </c>
       <c r="I578">
-        <v>0.4092533927386794</v>
+        <v>0.5217307676557548</v>
       </c>
       <c r="J578">
         <v>0.1074660726132081</v>
       </c>
       <c r="K578">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="L578">
-        <v>3</v>
+        <v>3.12</v>
       </c>
       <c r="M578">
         <v>1.17</v>
@@ -30362,96 +30362,96 @@
     </row>
     <row r="579" spans="1:16">
       <c r="A579" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B579" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C579">
-        <v>2.094107820370248</v>
+        <v>2.863518087781226</v>
       </c>
       <c r="D579" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E579">
-        <v>2.514574311506508</v>
+        <v>2.454264695042546</v>
       </c>
       <c r="F579">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G579">
-        <v>0.002305892179629752</v>
+        <v>0.003136481912218774</v>
       </c>
       <c r="H579">
-        <v>0.002765425688493492</v>
+        <v>0.002705735304957454</v>
       </c>
       <c r="I579">
-        <v>0.4204664911362594</v>
+        <v>0.4092533927386794</v>
       </c>
       <c r="J579">
-        <v>0.1028079413881086</v>
+        <v>0.1074660726132081</v>
       </c>
       <c r="K579">
-        <v>1.03</v>
+        <v>1.27</v>
       </c>
       <c r="L579">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="M579">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="N579">
-        <v>2.64</v>
+        <v>2.58</v>
       </c>
       <c r="O579">
         <v>1</v>
       </c>
       <c r="P579" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="580" spans="1:16">
       <c r="A580" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B580" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C580">
-        <v>2.982237358539935</v>
+        <v>2.094107820370248</v>
       </c>
       <c r="D580" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E580">
-        <v>2.459714708575913</v>
+        <v>2.514574311506508</v>
       </c>
       <c r="F580">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G580">
-        <v>0.003257762641460066</v>
+        <v>0.002305892179629752</v>
       </c>
       <c r="H580">
-        <v>0.002700285291424087</v>
+        <v>0.002765425688493492</v>
       </c>
       <c r="I580">
-        <v>0.5225226499640216</v>
+        <v>0.4204664911362594</v>
       </c>
       <c r="J580">
         <v>0.1028079413881086</v>
       </c>
       <c r="K580">
-        <v>1.34</v>
+        <v>1.03</v>
       </c>
       <c r="L580">
-        <v>3.12</v>
+        <v>2.2</v>
       </c>
       <c r="M580">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="N580">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="O580">
         <v>1</v>
@@ -30462,13 +30462,13 @@
     </row>
     <row r="581" spans="1:16">
       <c r="A581" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B581" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C581">
-        <v>2.869433914437102</v>
+        <v>2.982237358539935</v>
       </c>
       <c r="D581" t="s">
         <v>142</v>
@@ -30480,22 +30480,22 @@
         <v>-1</v>
       </c>
       <c r="G581">
-        <v>0.003130566085562898</v>
+        <v>0.003257762641460066</v>
       </c>
       <c r="H581">
         <v>0.002700285291424087</v>
       </c>
       <c r="I581">
-        <v>0.4097192058611889</v>
+        <v>0.5225226499640216</v>
       </c>
       <c r="J581">
         <v>0.1028079413881086</v>
       </c>
       <c r="K581">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="L581">
-        <v>3</v>
+        <v>3.12</v>
       </c>
       <c r="M581">
         <v>1.17</v>
@@ -30512,96 +30512,96 @@
     </row>
     <row r="582" spans="1:16">
       <c r="A582" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B582" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C582">
-        <v>2.084743195682537</v>
+        <v>2.869433914437102</v>
       </c>
       <c r="D582" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E582">
-        <v>2.503482231779316</v>
+        <v>2.459714708575913</v>
       </c>
       <c r="F582">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G582">
-        <v>0.002315256804317463</v>
+        <v>0.003130566085562898</v>
       </c>
       <c r="H582">
-        <v>0.002776517768220685</v>
+        <v>0.002700285291424087</v>
       </c>
       <c r="I582">
-        <v>0.4187390360967784</v>
+        <v>0.4097192058611889</v>
       </c>
       <c r="J582">
-        <v>0.1118998100169543</v>
+        <v>0.1028079413881086</v>
       </c>
       <c r="K582">
-        <v>1.03</v>
+        <v>1.27</v>
       </c>
       <c r="L582">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="M582">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="N582">
-        <v>2.64</v>
+        <v>2.58</v>
       </c>
       <c r="O582">
         <v>1</v>
       </c>
       <c r="P582" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="583" spans="1:16">
       <c r="A583" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B583" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C583">
-        <v>2.970054254577281</v>
+        <v>2.084743195682537</v>
       </c>
       <c r="D583" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E583">
-        <v>2.449077222280164</v>
+        <v>2.503482231779316</v>
       </c>
       <c r="F583">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G583">
-        <v>0.003269945745422719</v>
+        <v>0.002315256804317463</v>
       </c>
       <c r="H583">
-        <v>0.002710922777719837</v>
+        <v>0.002776517768220685</v>
       </c>
       <c r="I583">
-        <v>0.5209770322971177</v>
+        <v>0.4187390360967784</v>
       </c>
       <c r="J583">
         <v>0.1118998100169543</v>
       </c>
       <c r="K583">
-        <v>1.34</v>
+        <v>1.03</v>
       </c>
       <c r="L583">
-        <v>3.12</v>
+        <v>2.2</v>
       </c>
       <c r="M583">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="N583">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="O583">
         <v>1</v>
@@ -30612,13 +30612,13 @@
     </row>
     <row r="584" spans="1:16">
       <c r="A584" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B584" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C584">
-        <v>2.857887241278468</v>
+        <v>2.970054254577281</v>
       </c>
       <c r="D584" t="s">
         <v>142</v>
@@ -30630,22 +30630,22 @@
         <v>-1</v>
       </c>
       <c r="G584">
-        <v>0.003142112758721532</v>
+        <v>0.003269945745422719</v>
       </c>
       <c r="H584">
         <v>0.002710922777719837</v>
       </c>
       <c r="I584">
-        <v>0.4088100189983046</v>
+        <v>0.5209770322971177</v>
       </c>
       <c r="J584">
         <v>0.1118998100169543</v>
       </c>
       <c r="K584">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="L584">
-        <v>3</v>
+        <v>3.12</v>
       </c>
       <c r="M584">
         <v>1.17</v>
@@ -30662,40 +30662,40 @@
     </row>
     <row r="585" spans="1:16">
       <c r="A585" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B585" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C585">
-        <v>2.944089643772313</v>
+        <v>2.857887241278468</v>
       </c>
       <c r="D585" t="s">
         <v>142</v>
       </c>
       <c r="E585">
-        <v>2.426406629263886</v>
+        <v>2.449077222280164</v>
       </c>
       <c r="F585">
         <v>-1</v>
       </c>
       <c r="G585">
-        <v>0.003295910356227687</v>
+        <v>0.003142112758721532</v>
       </c>
       <c r="H585">
-        <v>0.002733593370736115</v>
+        <v>0.002710922777719837</v>
       </c>
       <c r="I585">
-        <v>0.5176830145084277</v>
+        <v>0.4088100189983046</v>
       </c>
       <c r="J585">
-        <v>0.1312763852445424</v>
+        <v>0.1118998100169543</v>
       </c>
       <c r="K585">
-        <v>1.34</v>
+        <v>1.27</v>
       </c>
       <c r="L585">
-        <v>3.12</v>
+        <v>3</v>
       </c>
       <c r="M585">
         <v>1.17</v>
@@ -30707,18 +30707,18 @@
         <v>1</v>
       </c>
       <c r="P585" t="s">
-        <v>59</v>
+        <v>354</v>
       </c>
     </row>
     <row r="586" spans="1:16">
       <c r="A586" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B586" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C586">
-        <v>2.833278990739431</v>
+        <v>2.944089643772313</v>
       </c>
       <c r="D586" t="s">
         <v>142</v>
@@ -30730,22 +30730,22 @@
         <v>-1</v>
       </c>
       <c r="G586">
-        <v>0.003166721009260569</v>
+        <v>0.003295910356227687</v>
       </c>
       <c r="H586">
         <v>0.002733593370736115</v>
       </c>
       <c r="I586">
-        <v>0.4068723614755454</v>
+        <v>0.5176830145084277</v>
       </c>
       <c r="J586">
         <v>0.1312763852445424</v>
       </c>
       <c r="K586">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="L586">
-        <v>3</v>
+        <v>3.12</v>
       </c>
       <c r="M586">
         <v>1.17</v>
@@ -30762,96 +30762,96 @@
     </row>
     <row r="587" spans="1:16">
       <c r="A587" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B587" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C587">
-        <v>2.063914340678486</v>
+        <v>2.833278990739431</v>
       </c>
       <c r="D587" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E587">
-        <v>2.437335373233729</v>
+        <v>2.426406629263886</v>
       </c>
       <c r="F587">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G587">
-        <v>0.002416085659321514</v>
+        <v>0.003166721009260569</v>
       </c>
       <c r="H587">
-        <v>0.002842664626766271</v>
+        <v>0.002733593370736115</v>
       </c>
       <c r="I587">
-        <v>0.3734210325552429</v>
+        <v>0.4068723614755454</v>
       </c>
       <c r="J587">
-        <v>0.16611854652973</v>
+        <v>0.1312763852445424</v>
       </c>
       <c r="K587">
-        <v>1.06</v>
+        <v>1.27</v>
       </c>
       <c r="L587">
-        <v>2.24</v>
+        <v>3</v>
       </c>
       <c r="M587">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="N587">
-        <v>2.64</v>
+        <v>2.58</v>
       </c>
       <c r="O587">
         <v>1</v>
       </c>
       <c r="P587" t="s">
-        <v>355</v>
+        <v>59</v>
       </c>
     </row>
     <row r="588" spans="1:16">
       <c r="A588" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B588" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C588">
-        <v>2.897401147650162</v>
+        <v>2.063914340678486</v>
       </c>
       <c r="D588" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E588">
-        <v>2.385641300560216</v>
+        <v>2.437335373233729</v>
       </c>
       <c r="F588">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G588">
-        <v>0.003342598852349839</v>
+        <v>0.002416085659321514</v>
       </c>
       <c r="H588">
-        <v>0.002774358699439784</v>
+        <v>0.002842664626766271</v>
       </c>
       <c r="I588">
-        <v>0.5117598470899458</v>
+        <v>0.3734210325552429</v>
       </c>
       <c r="J588">
         <v>0.16611854652973</v>
       </c>
       <c r="K588">
-        <v>1.34</v>
+        <v>1.06</v>
       </c>
       <c r="L588">
-        <v>3.12</v>
+        <v>2.24</v>
       </c>
       <c r="M588">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="N588">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="O588">
         <v>1</v>
@@ -30862,13 +30862,13 @@
     </row>
     <row r="589" spans="1:16">
       <c r="A589" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B589" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C589">
-        <v>2.789029445907243</v>
+        <v>2.897401147650162</v>
       </c>
       <c r="D589" t="s">
         <v>142</v>
@@ -30880,22 +30880,22 @@
         <v>-1</v>
       </c>
       <c r="G589">
-        <v>0.003210970554092757</v>
+        <v>0.003342598852349839</v>
       </c>
       <c r="H589">
         <v>0.002774358699439784</v>
       </c>
       <c r="I589">
-        <v>0.4033881453470269</v>
+        <v>0.5117598470899458</v>
       </c>
       <c r="J589">
         <v>0.16611854652973</v>
       </c>
       <c r="K589">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="L589">
-        <v>3</v>
+        <v>3.12</v>
       </c>
       <c r="M589">
         <v>1.17</v>
@@ -30912,96 +30912,96 @@
     </row>
     <row r="590" spans="1:16">
       <c r="A590" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B590" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C590">
-        <v>2.014066208827843</v>
+        <v>2.789029445907243</v>
       </c>
       <c r="D590" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E590">
-        <v>2.379962995066008</v>
+        <v>2.385641300560216</v>
       </c>
       <c r="F590">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G590">
-        <v>0.002465933791172158</v>
+        <v>0.003210970554092757</v>
       </c>
       <c r="H590">
-        <v>0.002900037004933993</v>
+        <v>0.002774358699439784</v>
       </c>
       <c r="I590">
-        <v>0.365896786238165</v>
+        <v>0.4033881453470269</v>
       </c>
       <c r="J590">
-        <v>0.2131450860114693</v>
+        <v>0.16611854652973</v>
       </c>
       <c r="K590">
-        <v>1.06</v>
+        <v>1.27</v>
       </c>
       <c r="L590">
-        <v>2.24</v>
+        <v>3</v>
       </c>
       <c r="M590">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="N590">
-        <v>2.64</v>
+        <v>2.58</v>
       </c>
       <c r="O590">
         <v>1</v>
       </c>
       <c r="P590" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="591" spans="1:16">
       <c r="A591" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B591" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C591">
-        <v>2.834385584744631</v>
+        <v>2.014066208827843</v>
       </c>
       <c r="D591" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E591">
-        <v>2.330620249366581</v>
+        <v>2.379962995066008</v>
       </c>
       <c r="F591">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G591">
-        <v>0.003405614415255369</v>
+        <v>0.002465933791172158</v>
       </c>
       <c r="H591">
-        <v>0.002829379750633419</v>
+        <v>0.002900037004933993</v>
       </c>
       <c r="I591">
-        <v>0.5037653353780502</v>
+        <v>0.365896786238165</v>
       </c>
       <c r="J591">
         <v>0.2131450860114693</v>
       </c>
       <c r="K591">
-        <v>1.34</v>
+        <v>1.06</v>
       </c>
       <c r="L591">
-        <v>3.12</v>
+        <v>2.24</v>
       </c>
       <c r="M591">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="N591">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="O591">
         <v>1</v>
@@ -31012,13 +31012,13 @@
     </row>
     <row r="592" spans="1:16">
       <c r="A592" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B592" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C592">
-        <v>2.729305740765434</v>
+        <v>2.834385584744631</v>
       </c>
       <c r="D592" t="s">
         <v>142</v>
@@ -31030,22 +31030,22 @@
         <v>-1</v>
       </c>
       <c r="G592">
-        <v>0.003270694259234566</v>
+        <v>0.003405614415255369</v>
       </c>
       <c r="H592">
         <v>0.002829379750633419</v>
       </c>
       <c r="I592">
-        <v>0.3986854913988531</v>
+        <v>0.5037653353780502</v>
       </c>
       <c r="J592">
         <v>0.2131450860114693</v>
       </c>
       <c r="K592">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="L592">
-        <v>3</v>
+        <v>3.12</v>
       </c>
       <c r="M592">
         <v>1.17</v>
@@ -31062,40 +31062,40 @@
     </row>
     <row r="593" spans="1:16">
       <c r="A593" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B593" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C593">
-        <v>2.710585509297514</v>
+        <v>2.729305740765434</v>
       </c>
       <c r="D593" t="s">
         <v>142</v>
       </c>
       <c r="E593">
-        <v>2.222526153640366</v>
+        <v>2.330620249366581</v>
       </c>
       <c r="F593">
         <v>-1</v>
       </c>
       <c r="G593">
-        <v>0.003529414490702487</v>
+        <v>0.003270694259234566</v>
       </c>
       <c r="H593">
-        <v>0.002937473846359634</v>
+        <v>0.002829379750633419</v>
       </c>
       <c r="I593">
-        <v>0.4880593556571475</v>
+        <v>0.3986854913988531</v>
       </c>
       <c r="J593">
-        <v>0.3055332020167811</v>
+        <v>0.2131450860114693</v>
       </c>
       <c r="K593">
-        <v>1.34</v>
+        <v>1.27</v>
       </c>
       <c r="L593">
-        <v>3.12</v>
+        <v>3</v>
       </c>
       <c r="M593">
         <v>1.17</v>
@@ -31107,18 +31107,18 @@
         <v>1</v>
       </c>
       <c r="P593" t="s">
-        <v>60</v>
+        <v>356</v>
       </c>
     </row>
     <row r="594" spans="1:16">
       <c r="A594" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B594" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C594">
-        <v>2.611972833438688</v>
+        <v>2.710585509297514</v>
       </c>
       <c r="D594" t="s">
         <v>142</v>
@@ -31130,22 +31130,22 @@
         <v>-1</v>
       </c>
       <c r="G594">
-        <v>0.003388027166561312</v>
+        <v>0.003529414490702487</v>
       </c>
       <c r="H594">
         <v>0.002937473846359634</v>
       </c>
       <c r="I594">
-        <v>0.389446679798322</v>
+        <v>0.4880593556571475</v>
       </c>
       <c r="J594">
         <v>0.3055332020167811</v>
       </c>
       <c r="K594">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="L594">
-        <v>3</v>
+        <v>3.12</v>
       </c>
       <c r="M594">
         <v>1.17</v>
@@ -31162,40 +31162,40 @@
     </row>
     <row r="595" spans="1:16">
       <c r="A595" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B595" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C595">
-        <v>2.647551728558422</v>
+        <v>2.611972833438688</v>
       </c>
       <c r="D595" t="s">
         <v>142</v>
       </c>
       <c r="E595">
-        <v>2.167489195830861</v>
+        <v>2.222526153640366</v>
       </c>
       <c r="F595">
         <v>-1</v>
       </c>
       <c r="G595">
-        <v>0.003592448271441579</v>
+        <v>0.003388027166561312</v>
       </c>
       <c r="H595">
-        <v>0.00299251080416914</v>
+        <v>0.002937473846359634</v>
       </c>
       <c r="I595">
-        <v>0.4800625327275609</v>
+        <v>0.389446679798322</v>
       </c>
       <c r="J595">
-        <v>0.3525733368967002</v>
+        <v>0.3055332020167811</v>
       </c>
       <c r="K595">
-        <v>1.34</v>
+        <v>1.27</v>
       </c>
       <c r="L595">
-        <v>3.12</v>
+        <v>3</v>
       </c>
       <c r="M595">
         <v>1.17</v>
@@ -31207,18 +31207,18 @@
         <v>1</v>
       </c>
       <c r="P595" t="s">
-        <v>357</v>
+        <v>60</v>
       </c>
     </row>
     <row r="596" spans="1:16">
       <c r="A596" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B596" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C596">
-        <v>2.552231862141191</v>
+        <v>2.647551728558422</v>
       </c>
       <c r="D596" t="s">
         <v>142</v>
@@ -31230,22 +31230,22 @@
         <v>-1</v>
       </c>
       <c r="G596">
-        <v>0.003447768137858809</v>
+        <v>0.003592448271441579</v>
       </c>
       <c r="H596">
         <v>0.00299251080416914</v>
       </c>
       <c r="I596">
-        <v>0.3847426663103302</v>
+        <v>0.4800625327275609</v>
       </c>
       <c r="J596">
         <v>0.3525733368967002</v>
       </c>
       <c r="K596">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="L596">
-        <v>3</v>
+        <v>3.12</v>
       </c>
       <c r="M596">
         <v>1.17</v>
@@ -31262,40 +31262,40 @@
     </row>
     <row r="597" spans="1:16">
       <c r="A597" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B597" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C597">
-        <v>2.59897387935353</v>
+        <v>2.552231862141191</v>
       </c>
       <c r="D597" t="s">
         <v>142</v>
       </c>
       <c r="E597">
-        <v>2.125074208092261</v>
+        <v>2.167489195830861</v>
       </c>
       <c r="F597">
         <v>-1</v>
       </c>
       <c r="G597">
-        <v>0.003641026120646471</v>
+        <v>0.003447768137858809</v>
       </c>
       <c r="H597">
-        <v>0.003034925791907739</v>
+        <v>0.00299251080416914</v>
       </c>
       <c r="I597">
-        <v>0.4738996712612686</v>
+        <v>0.3847426663103302</v>
       </c>
       <c r="J597">
-        <v>0.3888254631690077</v>
+        <v>0.3525733368967002</v>
       </c>
       <c r="K597">
-        <v>1.34</v>
+        <v>1.27</v>
       </c>
       <c r="L597">
-        <v>3.12</v>
+        <v>3</v>
       </c>
       <c r="M597">
         <v>1.17</v>
@@ -31307,18 +31307,18 @@
         <v>1</v>
       </c>
       <c r="P597" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="598" spans="1:16">
       <c r="A598" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B598" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C598">
-        <v>2.50619166177536</v>
+        <v>2.59897387935353</v>
       </c>
       <c r="D598" t="s">
         <v>142</v>
@@ -31330,22 +31330,22 @@
         <v>-1</v>
       </c>
       <c r="G598">
-        <v>0.00349380833822464</v>
+        <v>0.003641026120646471</v>
       </c>
       <c r="H598">
         <v>0.003034925791907739</v>
       </c>
       <c r="I598">
-        <v>0.3811174536830992</v>
+        <v>0.4738996712612686</v>
       </c>
       <c r="J598">
         <v>0.3888254631690077</v>
       </c>
       <c r="K598">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="L598">
-        <v>3</v>
+        <v>3.12</v>
       </c>
       <c r="M598">
         <v>1.17</v>
@@ -31362,63 +31362,63 @@
     </row>
     <row r="599" spans="1:16">
       <c r="A599" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B599" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C599">
-        <v>2.575095597538799</v>
+        <v>2.50619166177536</v>
       </c>
       <c r="D599" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E599">
-        <v>2.130158809772972</v>
+        <v>2.125074208092261</v>
       </c>
       <c r="F599">
         <v>-1</v>
       </c>
       <c r="G599">
-        <v>0.003664904402461202</v>
+        <v>0.00349380833822464</v>
       </c>
       <c r="H599">
-        <v>0.003089841190227028</v>
+        <v>0.003034925791907739</v>
       </c>
       <c r="I599">
-        <v>0.444936787765827</v>
+        <v>0.3811174536830992</v>
       </c>
       <c r="J599">
-        <v>0.4066450764635833</v>
+        <v>0.3888254631690077</v>
       </c>
       <c r="K599">
-        <v>1.34</v>
+        <v>1.27</v>
       </c>
       <c r="L599">
-        <v>3.12</v>
+        <v>3</v>
       </c>
       <c r="M599">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="N599">
-        <v>2.61</v>
+        <v>2.58</v>
       </c>
       <c r="O599">
         <v>1</v>
       </c>
       <c r="P599" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="600" spans="1:16">
       <c r="A600" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B600" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C600">
-        <v>2.483560752891249</v>
+        <v>2.575095597538799</v>
       </c>
       <c r="D600" t="s">
         <v>144</v>
@@ -31430,22 +31430,22 @@
         <v>-1</v>
       </c>
       <c r="G600">
-        <v>0.003516439247108751</v>
+        <v>0.003664904402461202</v>
       </c>
       <c r="H600">
         <v>0.003089841190227028</v>
       </c>
       <c r="I600">
-        <v>0.3534019431182776</v>
+        <v>0.444936787765827</v>
       </c>
       <c r="J600">
         <v>0.4066450764635833</v>
       </c>
       <c r="K600">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="L600">
-        <v>3</v>
+        <v>3.12</v>
       </c>
       <c r="M600">
         <v>1.18</v>
@@ -31462,40 +31462,40 @@
     </row>
     <row r="601" spans="1:16">
       <c r="A601" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B601" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C601">
-        <v>2.513392232045375</v>
+        <v>2.483560752891249</v>
       </c>
       <c r="D601" t="s">
         <v>144</v>
       </c>
       <c r="E601">
-        <v>2.075823010308614</v>
+        <v>2.130158809772972</v>
       </c>
       <c r="F601">
         <v>-1</v>
       </c>
       <c r="G601">
-        <v>0.003726607767954625</v>
+        <v>0.003516439247108751</v>
       </c>
       <c r="H601">
-        <v>0.003144176989691386</v>
+        <v>0.003089841190227028</v>
       </c>
       <c r="I601">
-        <v>0.4375692217367613</v>
+        <v>0.3534019431182776</v>
       </c>
       <c r="J601">
-        <v>0.4526923641452424</v>
+        <v>0.4066450764635833</v>
       </c>
       <c r="K601">
-        <v>1.34</v>
+        <v>1.27</v>
       </c>
       <c r="L601">
-        <v>3.12</v>
+        <v>3</v>
       </c>
       <c r="M601">
         <v>1.18</v>
@@ -31507,18 +31507,18 @@
         <v>1</v>
       </c>
       <c r="P601" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="602" spans="1:16">
       <c r="A602" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B602" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C602">
-        <v>2.425080697535542</v>
+        <v>2.513392232045375</v>
       </c>
       <c r="D602" t="s">
         <v>144</v>
@@ -31530,22 +31530,22 @@
         <v>-1</v>
       </c>
       <c r="G602">
-        <v>0.003574919302464458</v>
+        <v>0.003726607767954625</v>
       </c>
       <c r="H602">
         <v>0.003144176989691386</v>
       </c>
       <c r="I602">
-        <v>0.349257687226928</v>
+        <v>0.4375692217367613</v>
       </c>
       <c r="J602">
         <v>0.4526923641452424</v>
       </c>
       <c r="K602">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="L602">
-        <v>3</v>
+        <v>3.12</v>
       </c>
       <c r="M602">
         <v>1.18</v>
@@ -31562,40 +31562,40 @@
     </row>
     <row r="603" spans="1:16">
       <c r="A603" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B603" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C603">
-        <v>2.46037019732591</v>
+        <v>2.425080697535542</v>
       </c>
       <c r="D603" t="s">
         <v>144</v>
       </c>
       <c r="E603">
-        <v>2.029131964809383</v>
+        <v>2.075823010308614</v>
       </c>
       <c r="F603">
         <v>-1</v>
       </c>
       <c r="G603">
-        <v>0.00377962980267409</v>
+        <v>0.003574919302464458</v>
       </c>
       <c r="H603">
-        <v>0.003190868035190617</v>
+        <v>0.003144176989691386</v>
       </c>
       <c r="I603">
-        <v>0.4312382325165269</v>
+        <v>0.349257687226928</v>
       </c>
       <c r="J603">
-        <v>0.4922610467717091</v>
+        <v>0.4526923641452424</v>
       </c>
       <c r="K603">
-        <v>1.34</v>
+        <v>1.27</v>
       </c>
       <c r="L603">
-        <v>3.12</v>
+        <v>3</v>
       </c>
       <c r="M603">
         <v>1.18</v>
@@ -31607,18 +31607,18 @@
         <v>1</v>
       </c>
       <c r="P603" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="604" spans="1:16">
       <c r="A604" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B604" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C604">
-        <v>2.37482847059993</v>
+        <v>2.46037019732591</v>
       </c>
       <c r="D604" t="s">
         <v>144</v>
@@ -31630,22 +31630,22 @@
         <v>-1</v>
       </c>
       <c r="G604">
-        <v>0.003625171529400071</v>
+        <v>0.00377962980267409</v>
       </c>
       <c r="H604">
         <v>0.003190868035190617</v>
       </c>
       <c r="I604">
-        <v>0.3456965057905466</v>
+        <v>0.4312382325165269</v>
       </c>
       <c r="J604">
         <v>0.4922610467717091</v>
       </c>
       <c r="K604">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="L604">
-        <v>3</v>
+        <v>3.12</v>
       </c>
       <c r="M604">
         <v>1.18</v>
@@ -31657,6 +31657,56 @@
         <v>1</v>
       </c>
       <c r="P604" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="605" spans="1:16">
+      <c r="A605" s="1">
+        <v>1</v>
+      </c>
+      <c r="B605" t="s">
+        <v>58</v>
+      </c>
+      <c r="C605">
+        <v>2.37482847059993</v>
+      </c>
+      <c r="D605" t="s">
+        <v>144</v>
+      </c>
+      <c r="E605">
+        <v>2.029131964809383</v>
+      </c>
+      <c r="F605">
+        <v>-1</v>
+      </c>
+      <c r="G605">
+        <v>0.003625171529400071</v>
+      </c>
+      <c r="H605">
+        <v>0.003190868035190617</v>
+      </c>
+      <c r="I605">
+        <v>0.3456965057905466</v>
+      </c>
+      <c r="J605">
+        <v>0.4922610467717091</v>
+      </c>
+      <c r="K605">
+        <v>1.27</v>
+      </c>
+      <c r="L605">
+        <v>3</v>
+      </c>
+      <c r="M605">
+        <v>1.18</v>
+      </c>
+      <c r="N605">
+        <v>2.61</v>
+      </c>
+      <c r="O605">
+        <v>1</v>
+      </c>
+      <c r="P605" t="s">
         <v>361</v>
       </c>
     </row>

--- a/s60_signal/position-00991-601991.xlsx
+++ b/s60_signal/position-00991-601991.xlsx
@@ -31421,10 +31421,10 @@
         <v>2.575095597538799</v>
       </c>
       <c r="D600" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E600">
-        <v>2.130158809772972</v>
+        <v>2.104225260537608</v>
       </c>
       <c r="F600">
         <v>-1</v>
@@ -31433,10 +31433,10 @@
         <v>0.003664904402461202</v>
       </c>
       <c r="H600">
-        <v>0.003089841190227028</v>
+        <v>0.003055774739462393</v>
       </c>
       <c r="I600">
-        <v>0.444936787765827</v>
+        <v>0.4708703370011911</v>
       </c>
       <c r="J600">
         <v>0.4066450764635833</v>
@@ -31448,10 +31448,10 @@
         <v>3.12</v>
       </c>
       <c r="M600">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="N600">
-        <v>2.61</v>
+        <v>2.58</v>
       </c>
       <c r="O600">
         <v>1</v>
@@ -31471,10 +31471,10 @@
         <v>2.483560752891249</v>
       </c>
       <c r="D601" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E601">
-        <v>2.130158809772972</v>
+        <v>2.104225260537608</v>
       </c>
       <c r="F601">
         <v>-1</v>
@@ -31483,10 +31483,10 @@
         <v>0.003516439247108751</v>
       </c>
       <c r="H601">
-        <v>0.003089841190227028</v>
+        <v>0.003055774739462393</v>
       </c>
       <c r="I601">
-        <v>0.3534019431182776</v>
+        <v>0.3793354923536416</v>
       </c>
       <c r="J601">
         <v>0.4066450764635833</v>
@@ -31498,10 +31498,10 @@
         <v>3</v>
       </c>
       <c r="M601">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="N601">
-        <v>2.61</v>
+        <v>2.58</v>
       </c>
       <c r="O601">
         <v>1</v>
